--- a/data/objectives_db.xlsx
+++ b/data/objectives_db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal projects\LOL Analytics\izidash\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7247906F-654E-4011-AC0E-9406D3380452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{F9A56DF8-E143-4778-A3FE-0E0076D9DEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="main" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="119">
   <si>
     <t>date</t>
   </si>
@@ -301,6 +302,87 @@
   </si>
   <si>
     <t>27:00</t>
+  </si>
+  <si>
+    <t>12:20</t>
+  </si>
+  <si>
+    <t>16:50</t>
+  </si>
+  <si>
+    <t>17:50</t>
+  </si>
+  <si>
+    <t>23:00</t>
+  </si>
+  <si>
+    <t>25:00</t>
+  </si>
+  <si>
+    <t>6:40</t>
+  </si>
+  <si>
+    <t>6:45</t>
+  </si>
+  <si>
+    <t>11:50</t>
+  </si>
+  <si>
+    <t>12:40</t>
+  </si>
+  <si>
+    <t>16:10</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>22:20</t>
+  </si>
+  <si>
+    <t>23:35</t>
+  </si>
+  <si>
+    <t>6:15</t>
+  </si>
+  <si>
+    <t>6:10</t>
+  </si>
+  <si>
+    <t>10:45</t>
+  </si>
+  <si>
+    <t>18:55</t>
+  </si>
+  <si>
+    <t>21:50</t>
+  </si>
+  <si>
+    <t>24:25</t>
+  </si>
+  <si>
+    <t>29:30</t>
+  </si>
+  <si>
+    <t>29:50</t>
+  </si>
+  <si>
+    <t>ZER</t>
+  </si>
+  <si>
+    <t>5:50</t>
+  </si>
+  <si>
+    <t>13:05</t>
+  </si>
+  <si>
+    <t>18:45</t>
+  </si>
+  <si>
+    <t>24:00</t>
+  </si>
+  <si>
+    <t>25:37</t>
   </si>
 </sst>
 </file>
@@ -635,11 +717,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC59F93-A913-4F2B-B92A-6E7BAE1BA4DF}">
-  <dimension ref="A1:R65"/>
+  <dimension ref="A1:R267"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E64" sqref="E64"/>
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H100" sqref="H100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2561,7 +2643,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A52" s="2">
         <v>45710</v>
       </c>
@@ -2593,7 +2675,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A53" s="2">
         <v>45710</v>
       </c>
@@ -2628,7 +2710,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A54" s="2">
         <v>45710</v>
       </c>
@@ -2654,7 +2736,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A55" s="2">
         <v>45710</v>
       </c>
@@ -2683,7 +2765,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A56" s="2">
         <v>45710</v>
       </c>
@@ -2718,7 +2800,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A57" s="2">
         <v>45710</v>
       </c>
@@ -2745,7 +2827,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2">
         <v>45710</v>
       </c>
@@ -2780,7 +2862,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2">
         <v>45710</v>
       </c>
@@ -2812,25 +2894,1779 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A60" s="2"/>
-      <c r="H60" s="5"/>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A61" s="2"/>
-      <c r="H61" s="5"/>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A62" s="2"/>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A63" s="2"/>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A64" s="2"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A65" s="2"/>
+    <row r="60" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="2">
+        <v>45759</v>
+      </c>
+      <c r="B60" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60" t="s">
+        <v>8</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O60" t="s">
+        <v>7</v>
+      </c>
+      <c r="R60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="2">
+        <v>45759</v>
+      </c>
+      <c r="B61" t="s">
+        <v>77</v>
+      </c>
+      <c r="C61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F61" t="s">
+        <v>77</v>
+      </c>
+      <c r="G61" t="s">
+        <v>77</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I61" t="s">
+        <v>7</v>
+      </c>
+      <c r="J61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="2">
+        <v>45759</v>
+      </c>
+      <c r="B62" t="s">
+        <v>77</v>
+      </c>
+      <c r="C62" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O62" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>7</v>
+      </c>
+      <c r="R62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="2">
+        <v>45759</v>
+      </c>
+      <c r="B63" t="s">
+        <v>77</v>
+      </c>
+      <c r="C63" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" t="s">
+        <v>68</v>
+      </c>
+      <c r="F63" t="s">
+        <v>28</v>
+      </c>
+      <c r="G63" t="s">
+        <v>77</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I63" t="s">
+        <v>7</v>
+      </c>
+      <c r="J63" t="s">
+        <v>7</v>
+      </c>
+      <c r="L63" t="s">
+        <v>7</v>
+      </c>
+      <c r="M63" t="s">
+        <v>7</v>
+      </c>
+      <c r="O63" t="s">
+        <v>7</v>
+      </c>
+      <c r="P63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="2">
+        <v>45759</v>
+      </c>
+      <c r="B64" t="s">
+        <v>77</v>
+      </c>
+      <c r="C64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F64" t="s">
+        <v>8</v>
+      </c>
+      <c r="G64" t="s">
+        <v>8</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="O64" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>7</v>
+      </c>
+      <c r="R64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="2">
+        <v>45759</v>
+      </c>
+      <c r="B65" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" t="s">
+        <v>72</v>
+      </c>
+      <c r="F65" t="s">
+        <v>8</v>
+      </c>
+      <c r="G65" t="s">
+        <v>8</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="N65" t="s">
+        <v>7</v>
+      </c>
+      <c r="O65" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="2">
+        <v>45759</v>
+      </c>
+      <c r="B66" t="s">
+        <v>77</v>
+      </c>
+      <c r="C66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F66" t="s">
+        <v>8</v>
+      </c>
+      <c r="G66" t="s">
+        <v>8</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="N66" t="s">
+        <v>7</v>
+      </c>
+      <c r="O66" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>7</v>
+      </c>
+      <c r="R66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="2">
+        <v>45759</v>
+      </c>
+      <c r="B67" t="s">
+        <v>77</v>
+      </c>
+      <c r="C67" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E67" t="s">
+        <v>72</v>
+      </c>
+      <c r="F67" t="s">
+        <v>8</v>
+      </c>
+      <c r="G67" t="s">
+        <v>8</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="N67" t="s">
+        <v>7</v>
+      </c>
+      <c r="O67" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>7</v>
+      </c>
+      <c r="R67" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="2">
+        <v>45759</v>
+      </c>
+      <c r="B68" t="s">
+        <v>77</v>
+      </c>
+      <c r="C68" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F68" t="s">
+        <v>8</v>
+      </c>
+      <c r="G68" t="s">
+        <v>8</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="O68" t="s">
+        <v>7</v>
+      </c>
+      <c r="P68" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>7</v>
+      </c>
+      <c r="R68" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="2">
+        <v>45759</v>
+      </c>
+      <c r="B69" t="s">
+        <v>76</v>
+      </c>
+      <c r="C69" t="s">
+        <v>49</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F69" t="s">
+        <v>49</v>
+      </c>
+      <c r="G69" t="s">
+        <v>49</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="O69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="2">
+        <v>45759</v>
+      </c>
+      <c r="B70" t="s">
+        <v>76</v>
+      </c>
+      <c r="C70" t="s">
+        <v>49</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" t="s">
+        <v>72</v>
+      </c>
+      <c r="F70" t="s">
+        <v>76</v>
+      </c>
+      <c r="G70" t="s">
+        <v>76</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="J70" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="2">
+        <v>45759</v>
+      </c>
+      <c r="B71" t="s">
+        <v>76</v>
+      </c>
+      <c r="C71" t="s">
+        <v>49</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F71" t="s">
+        <v>76</v>
+      </c>
+      <c r="G71" t="s">
+        <v>76</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="I71" t="s">
+        <v>7</v>
+      </c>
+      <c r="J71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="2">
+        <v>45759</v>
+      </c>
+      <c r="B72" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72" t="s">
+        <v>49</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" t="s">
+        <v>49</v>
+      </c>
+      <c r="G72" t="s">
+        <v>49</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="O72" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>7</v>
+      </c>
+      <c r="R72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="2">
+        <v>45759</v>
+      </c>
+      <c r="B73" t="s">
+        <v>76</v>
+      </c>
+      <c r="C73" t="s">
+        <v>49</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" t="s">
+        <v>15</v>
+      </c>
+      <c r="F73" t="s">
+        <v>76</v>
+      </c>
+      <c r="G73" t="s">
+        <v>76</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="I73" t="s">
+        <v>7</v>
+      </c>
+      <c r="J73" t="s">
+        <v>7</v>
+      </c>
+      <c r="M73" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="2">
+        <v>45759</v>
+      </c>
+      <c r="B74" t="s">
+        <v>76</v>
+      </c>
+      <c r="C74" t="s">
+        <v>49</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F74" t="s">
+        <v>49</v>
+      </c>
+      <c r="G74" t="s">
+        <v>49</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="O74" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="2">
+        <v>45759</v>
+      </c>
+      <c r="B75" t="s">
+        <v>76</v>
+      </c>
+      <c r="C75" t="s">
+        <v>49</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E75" t="s">
+        <v>15</v>
+      </c>
+      <c r="F75" t="s">
+        <v>49</v>
+      </c>
+      <c r="G75" t="s">
+        <v>49</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="O75" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="2">
+        <v>45759</v>
+      </c>
+      <c r="B76" t="s">
+        <v>76</v>
+      </c>
+      <c r="C76" t="s">
+        <v>49</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F76" t="s">
+        <v>49</v>
+      </c>
+      <c r="G76" t="s">
+        <v>49</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="N76" t="s">
+        <v>7</v>
+      </c>
+      <c r="O76" t="s">
+        <v>7</v>
+      </c>
+      <c r="P76" t="s">
+        <v>7</v>
+      </c>
+      <c r="R76" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="2">
+        <v>45759</v>
+      </c>
+      <c r="B77" t="s">
+        <v>76</v>
+      </c>
+      <c r="C77" t="s">
+        <v>49</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F77" t="s">
+        <v>28</v>
+      </c>
+      <c r="G77" t="s">
+        <v>49</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I77" t="s">
+        <v>7</v>
+      </c>
+      <c r="J77" t="s">
+        <v>7</v>
+      </c>
+      <c r="K77" t="s">
+        <v>7</v>
+      </c>
+      <c r="N77" t="s">
+        <v>7</v>
+      </c>
+      <c r="O77" t="s">
+        <v>7</v>
+      </c>
+      <c r="P77" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>7</v>
+      </c>
+      <c r="R77" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="2">
+        <v>45759</v>
+      </c>
+      <c r="B78" t="s">
+        <v>48</v>
+      </c>
+      <c r="C78" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" t="s">
+        <v>15</v>
+      </c>
+      <c r="F78" t="s">
+        <v>9</v>
+      </c>
+      <c r="G78" t="s">
+        <v>9</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="O78" t="s">
+        <v>7</v>
+      </c>
+      <c r="P78" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="2">
+        <v>45759</v>
+      </c>
+      <c r="B79" t="s">
+        <v>48</v>
+      </c>
+      <c r="C79" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F79" t="s">
+        <v>48</v>
+      </c>
+      <c r="G79" t="s">
+        <v>48</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J79" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="2">
+        <v>45759</v>
+      </c>
+      <c r="B80" t="s">
+        <v>48</v>
+      </c>
+      <c r="C80" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" t="s">
+        <v>32</v>
+      </c>
+      <c r="F80" t="s">
+        <v>9</v>
+      </c>
+      <c r="G80" t="s">
+        <v>9</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O80" t="s">
+        <v>7</v>
+      </c>
+      <c r="P80" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="2">
+        <v>45759</v>
+      </c>
+      <c r="B81" t="s">
+        <v>48</v>
+      </c>
+      <c r="C81" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" t="s">
+        <v>48</v>
+      </c>
+      <c r="G81" t="s">
+        <v>48</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="J81" t="s">
+        <v>7</v>
+      </c>
+      <c r="L81" t="s">
+        <v>7</v>
+      </c>
+      <c r="M81" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="2">
+        <v>45759</v>
+      </c>
+      <c r="B82" t="s">
+        <v>48</v>
+      </c>
+      <c r="C82" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F82" t="s">
+        <v>48</v>
+      </c>
+      <c r="G82" t="s">
+        <v>48</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I82" t="s">
+        <v>7</v>
+      </c>
+      <c r="J82" t="s">
+        <v>7</v>
+      </c>
+      <c r="L82" t="s">
+        <v>7</v>
+      </c>
+      <c r="M82" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="2">
+        <v>45759</v>
+      </c>
+      <c r="B83" t="s">
+        <v>48</v>
+      </c>
+      <c r="C83" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83" t="s">
+        <v>68</v>
+      </c>
+      <c r="F83" t="s">
+        <v>48</v>
+      </c>
+      <c r="G83" t="s">
+        <v>48</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="J83" t="s">
+        <v>7</v>
+      </c>
+      <c r="K83" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="2">
+        <v>45759</v>
+      </c>
+      <c r="B84" t="s">
+        <v>48</v>
+      </c>
+      <c r="C84" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F84" t="s">
+        <v>48</v>
+      </c>
+      <c r="G84" t="s">
+        <v>48</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J84" t="s">
+        <v>7</v>
+      </c>
+      <c r="K84" t="s">
+        <v>7</v>
+      </c>
+      <c r="L84" t="s">
+        <v>7</v>
+      </c>
+      <c r="M84" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A85" s="2">
+        <v>45759</v>
+      </c>
+      <c r="B85" t="s">
+        <v>48</v>
+      </c>
+      <c r="C85" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E85" t="s">
+        <v>68</v>
+      </c>
+      <c r="F85" t="s">
+        <v>48</v>
+      </c>
+      <c r="G85" t="s">
+        <v>48</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I85" t="s">
+        <v>7</v>
+      </c>
+      <c r="J85" t="s">
+        <v>7</v>
+      </c>
+      <c r="K85" t="s">
+        <v>7</v>
+      </c>
+      <c r="L85" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="2">
+        <v>45759</v>
+      </c>
+      <c r="B86" t="s">
+        <v>48</v>
+      </c>
+      <c r="C86" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F86" t="s">
+        <v>48</v>
+      </c>
+      <c r="G86" t="s">
+        <v>48</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J86" t="s">
+        <v>7</v>
+      </c>
+      <c r="K86" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="2">
+        <v>45759</v>
+      </c>
+      <c r="B87" t="s">
+        <v>48</v>
+      </c>
+      <c r="C87" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E87" t="s">
+        <v>68</v>
+      </c>
+      <c r="F87" t="s">
+        <v>9</v>
+      </c>
+      <c r="G87" t="s">
+        <v>9</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="N87" t="s">
+        <v>7</v>
+      </c>
+      <c r="O87" t="s">
+        <v>7</v>
+      </c>
+      <c r="P87" t="s">
+        <v>7</v>
+      </c>
+      <c r="R87" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A88" s="2">
+        <v>45759</v>
+      </c>
+      <c r="B88" t="s">
+        <v>113</v>
+      </c>
+      <c r="C88" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" t="s">
+        <v>50</v>
+      </c>
+      <c r="F88" t="s">
+        <v>113</v>
+      </c>
+      <c r="G88" t="s">
+        <v>113</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="J88" t="s">
+        <v>7</v>
+      </c>
+      <c r="M88" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A89" s="2">
+        <v>45759</v>
+      </c>
+      <c r="B89" t="s">
+        <v>113</v>
+      </c>
+      <c r="C89" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F89" t="s">
+        <v>9</v>
+      </c>
+      <c r="G89" t="s">
+        <v>9</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O89" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A90" s="2">
+        <v>45759</v>
+      </c>
+      <c r="B90" t="s">
+        <v>113</v>
+      </c>
+      <c r="C90" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" t="s">
+        <v>15</v>
+      </c>
+      <c r="F90" t="s">
+        <v>28</v>
+      </c>
+      <c r="G90" t="s">
+        <v>9</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="J90" t="s">
+        <v>7</v>
+      </c>
+      <c r="L90" t="s">
+        <v>7</v>
+      </c>
+      <c r="M90" t="s">
+        <v>7</v>
+      </c>
+      <c r="O90" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>7</v>
+      </c>
+      <c r="R90" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A91" s="2">
+        <v>45759</v>
+      </c>
+      <c r="B91" t="s">
+        <v>113</v>
+      </c>
+      <c r="C91" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F91" t="s">
+        <v>28</v>
+      </c>
+      <c r="G91" t="s">
+        <v>113</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J91" t="s">
+        <v>7</v>
+      </c>
+      <c r="K91" t="s">
+        <v>7</v>
+      </c>
+      <c r="L91" t="s">
+        <v>7</v>
+      </c>
+      <c r="M91" t="s">
+        <v>7</v>
+      </c>
+      <c r="O91" t="s">
+        <v>7</v>
+      </c>
+      <c r="P91" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>7</v>
+      </c>
+      <c r="R91" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A92" s="2">
+        <v>45759</v>
+      </c>
+      <c r="B92" t="s">
+        <v>113</v>
+      </c>
+      <c r="C92" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E92" t="s">
+        <v>72</v>
+      </c>
+      <c r="F92" t="s">
+        <v>113</v>
+      </c>
+      <c r="G92" t="s">
+        <v>113</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I92" t="s">
+        <v>7</v>
+      </c>
+      <c r="J92" t="s">
+        <v>7</v>
+      </c>
+      <c r="K92" t="s">
+        <v>7</v>
+      </c>
+      <c r="L92" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A93" s="2">
+        <v>45759</v>
+      </c>
+      <c r="B93" t="s">
+        <v>113</v>
+      </c>
+      <c r="C93" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F93" t="s">
+        <v>28</v>
+      </c>
+      <c r="G93" t="s">
+        <v>113</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J93" t="s">
+        <v>7</v>
+      </c>
+      <c r="L93" t="s">
+        <v>7</v>
+      </c>
+      <c r="M93" t="s">
+        <v>7</v>
+      </c>
+      <c r="O93" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>7</v>
+      </c>
+      <c r="R93" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A94" s="2">
+        <v>45759</v>
+      </c>
+      <c r="B94" t="s">
+        <v>113</v>
+      </c>
+      <c r="C94" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E94" t="s">
+        <v>72</v>
+      </c>
+      <c r="F94" t="s">
+        <v>9</v>
+      </c>
+      <c r="G94" t="s">
+        <v>9</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="P94" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A95" s="2">
+        <v>45759</v>
+      </c>
+      <c r="B95" t="s">
+        <v>113</v>
+      </c>
+      <c r="C95" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F95" t="s">
+        <v>9</v>
+      </c>
+      <c r="G95" t="s">
+        <v>9</v>
+      </c>
+      <c r="H95" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="O95" t="s">
+        <v>7</v>
+      </c>
+      <c r="P95" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>7</v>
+      </c>
+      <c r="R95" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A96" s="2">
+        <v>45759</v>
+      </c>
+      <c r="B96" t="s">
+        <v>113</v>
+      </c>
+      <c r="C96" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F96" t="s">
+        <v>9</v>
+      </c>
+      <c r="G96" t="s">
+        <v>9</v>
+      </c>
+      <c r="H96" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O96" t="s">
+        <v>7</v>
+      </c>
+      <c r="P96" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="H97" s="5"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H98" s="5"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H99" s="5"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H100" s="5"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H101" s="5"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H102" s="5"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H103" s="5"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H104" s="5"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H105" s="5"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H106" s="5"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H107" s="5"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H108" s="5"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H109" s="5"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H110" s="5"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H111" s="5"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H112" s="5"/>
+    </row>
+    <row r="113" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H113" s="5"/>
+    </row>
+    <row r="114" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H114" s="5"/>
+    </row>
+    <row r="115" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H115" s="5"/>
+    </row>
+    <row r="116" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H116" s="5"/>
+    </row>
+    <row r="117" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H117" s="5"/>
+    </row>
+    <row r="118" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H118" s="5"/>
+    </row>
+    <row r="119" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H119" s="5"/>
+    </row>
+    <row r="120" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H120" s="5"/>
+    </row>
+    <row r="121" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H121" s="5"/>
+    </row>
+    <row r="122" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H122" s="5"/>
+    </row>
+    <row r="123" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H123" s="5"/>
+    </row>
+    <row r="124" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H124" s="5"/>
+    </row>
+    <row r="125" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H125" s="5"/>
+    </row>
+    <row r="126" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H126" s="5"/>
+    </row>
+    <row r="127" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H127" s="5"/>
+    </row>
+    <row r="128" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H128" s="5"/>
+    </row>
+    <row r="129" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H129" s="5"/>
+    </row>
+    <row r="130" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H130" s="5"/>
+    </row>
+    <row r="131" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H131" s="5"/>
+    </row>
+    <row r="132" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H132" s="5"/>
+    </row>
+    <row r="133" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H133" s="5"/>
+    </row>
+    <row r="134" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H134" s="5"/>
+    </row>
+    <row r="135" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H135" s="5"/>
+    </row>
+    <row r="136" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H136" s="5"/>
+    </row>
+    <row r="137" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H137" s="5"/>
+    </row>
+    <row r="138" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H138" s="5"/>
+    </row>
+    <row r="139" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H139" s="5"/>
+    </row>
+    <row r="140" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H140" s="5"/>
+    </row>
+    <row r="141" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H141" s="5"/>
+    </row>
+    <row r="142" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H142" s="5"/>
+    </row>
+    <row r="143" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H143" s="5"/>
+    </row>
+    <row r="144" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H144" s="5"/>
+    </row>
+    <row r="145" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H145" s="5"/>
+    </row>
+    <row r="146" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H146" s="5"/>
+    </row>
+    <row r="147" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H147" s="5"/>
+    </row>
+    <row r="148" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H148" s="5"/>
+    </row>
+    <row r="149" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H149" s="5"/>
+    </row>
+    <row r="150" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H150" s="5"/>
+    </row>
+    <row r="151" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H151" s="5"/>
+    </row>
+    <row r="152" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H152" s="5"/>
+    </row>
+    <row r="153" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H153" s="5"/>
+    </row>
+    <row r="154" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H154" s="5"/>
+    </row>
+    <row r="155" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H155" s="5"/>
+    </row>
+    <row r="156" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H156" s="5"/>
+    </row>
+    <row r="157" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H157" s="5"/>
+    </row>
+    <row r="158" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H158" s="5"/>
+    </row>
+    <row r="159" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H159" s="5"/>
+    </row>
+    <row r="160" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H160" s="5"/>
+    </row>
+    <row r="161" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H161" s="5"/>
+    </row>
+    <row r="162" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H162" s="5"/>
+    </row>
+    <row r="163" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H163" s="5"/>
+    </row>
+    <row r="164" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H164" s="5"/>
+    </row>
+    <row r="165" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H165" s="5"/>
+    </row>
+    <row r="166" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H166" s="5"/>
+    </row>
+    <row r="167" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H167" s="5"/>
+    </row>
+    <row r="168" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H168" s="5"/>
+    </row>
+    <row r="169" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H169" s="5"/>
+    </row>
+    <row r="170" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H170" s="5"/>
+    </row>
+    <row r="171" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H171" s="5"/>
+    </row>
+    <row r="172" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H172" s="5"/>
+    </row>
+    <row r="173" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H173" s="5"/>
+    </row>
+    <row r="174" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H174" s="5"/>
+    </row>
+    <row r="175" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H175" s="5"/>
+    </row>
+    <row r="176" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H176" s="5"/>
+    </row>
+    <row r="177" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H177" s="5"/>
+    </row>
+    <row r="178" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H178" s="5"/>
+    </row>
+    <row r="179" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H179" s="5"/>
+    </row>
+    <row r="180" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H180" s="5"/>
+    </row>
+    <row r="181" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H181" s="5"/>
+    </row>
+    <row r="182" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H182" s="5"/>
+    </row>
+    <row r="183" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H183" s="5"/>
+    </row>
+    <row r="184" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H184" s="5"/>
+    </row>
+    <row r="185" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H185" s="5"/>
+    </row>
+    <row r="186" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H186" s="5"/>
+    </row>
+    <row r="187" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H187" s="5"/>
+    </row>
+    <row r="188" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H188" s="5"/>
+    </row>
+    <row r="189" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H189" s="5"/>
+    </row>
+    <row r="190" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H190" s="5"/>
+    </row>
+    <row r="191" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H191" s="5"/>
+    </row>
+    <row r="192" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H192" s="5"/>
+    </row>
+    <row r="193" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H193" s="5"/>
+    </row>
+    <row r="194" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H194" s="5"/>
+    </row>
+    <row r="195" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H195" s="5"/>
+    </row>
+    <row r="196" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H196" s="5"/>
+    </row>
+    <row r="197" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H197" s="5"/>
+    </row>
+    <row r="198" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H198" s="5"/>
+    </row>
+    <row r="199" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H199" s="5"/>
+    </row>
+    <row r="200" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H200" s="5"/>
+    </row>
+    <row r="201" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H201" s="5"/>
+    </row>
+    <row r="202" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H202" s="5"/>
+    </row>
+    <row r="203" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H203" s="5"/>
+    </row>
+    <row r="204" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H204" s="5"/>
+    </row>
+    <row r="205" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H205" s="5"/>
+    </row>
+    <row r="206" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H206" s="5"/>
+    </row>
+    <row r="207" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H207" s="5"/>
+    </row>
+    <row r="208" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H208" s="5"/>
+    </row>
+    <row r="209" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H209" s="5"/>
+    </row>
+    <row r="210" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H210" s="5"/>
+    </row>
+    <row r="211" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H211" s="5"/>
+    </row>
+    <row r="212" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H212" s="5"/>
+    </row>
+    <row r="213" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H213" s="5"/>
+    </row>
+    <row r="214" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H214" s="5"/>
+    </row>
+    <row r="215" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H215" s="5"/>
+    </row>
+    <row r="216" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H216" s="5"/>
+    </row>
+    <row r="217" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H217" s="5"/>
+    </row>
+    <row r="218" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H218" s="5"/>
+    </row>
+    <row r="219" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H219" s="5"/>
+    </row>
+    <row r="220" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H220" s="5"/>
+    </row>
+    <row r="221" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H221" s="5"/>
+    </row>
+    <row r="222" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H222" s="5"/>
+    </row>
+    <row r="223" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H223" s="5"/>
+    </row>
+    <row r="224" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H224" s="5"/>
+    </row>
+    <row r="225" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H225" s="5"/>
+    </row>
+    <row r="226" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H226" s="5"/>
+    </row>
+    <row r="227" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H227" s="5"/>
+    </row>
+    <row r="228" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H228" s="5"/>
+    </row>
+    <row r="229" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H229" s="5"/>
+    </row>
+    <row r="230" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H230" s="5"/>
+    </row>
+    <row r="231" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H231" s="5"/>
+    </row>
+    <row r="232" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H232" s="5"/>
+    </row>
+    <row r="233" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H233" s="5"/>
+    </row>
+    <row r="234" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H234" s="5"/>
+    </row>
+    <row r="235" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H235" s="5"/>
+    </row>
+    <row r="236" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H236" s="5"/>
+    </row>
+    <row r="237" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H237" s="5"/>
+    </row>
+    <row r="238" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H238" s="5"/>
+    </row>
+    <row r="239" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H239" s="5"/>
+    </row>
+    <row r="240" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H240" s="5"/>
+    </row>
+    <row r="241" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H241" s="5"/>
+    </row>
+    <row r="242" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H242" s="5"/>
+    </row>
+    <row r="243" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H243" s="5"/>
+    </row>
+    <row r="244" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H244" s="5"/>
+    </row>
+    <row r="245" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H245" s="5"/>
+    </row>
+    <row r="246" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H246" s="5"/>
+    </row>
+    <row r="247" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H247" s="5"/>
+    </row>
+    <row r="248" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H248" s="5"/>
+    </row>
+    <row r="249" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H249" s="5"/>
+    </row>
+    <row r="250" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H250" s="5"/>
+    </row>
+    <row r="251" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H251" s="5"/>
+    </row>
+    <row r="252" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H252" s="5"/>
+    </row>
+    <row r="253" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H253" s="5"/>
+    </row>
+    <row r="254" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H254" s="5"/>
+    </row>
+    <row r="255" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H255" s="5"/>
+    </row>
+    <row r="256" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H256" s="5"/>
+    </row>
+    <row r="257" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H257" s="5"/>
+    </row>
+    <row r="258" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H258" s="5"/>
+    </row>
+    <row r="259" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H259" s="5"/>
+    </row>
+    <row r="260" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H260" s="5"/>
+    </row>
+    <row r="261" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H261" s="5"/>
+    </row>
+    <row r="262" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H262" s="5"/>
+    </row>
+    <row r="263" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H263" s="5"/>
+    </row>
+    <row r="264" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H264" s="5"/>
+    </row>
+    <row r="265" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H265" s="5"/>
+    </row>
+    <row r="266" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H266" s="5"/>
+    </row>
+    <row r="267" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H267" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/objectives_db.xlsx
+++ b/data/objectives_db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal projects\LOL Analytics\izidash\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{F9A56DF8-E143-4778-A3FE-0E0076D9DEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E6F193-A655-4602-A370-3063DA239A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="main" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -720,8 +719,8 @@
   <dimension ref="A1:R267"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H100" sqref="H100"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -789,7 +788,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>45725</v>
       </c>
@@ -818,7 +817,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>45725</v>
       </c>
@@ -868,7 +867,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>45725</v>
       </c>
@@ -900,7 +899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>45725</v>
       </c>
@@ -929,7 +928,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>45725</v>
       </c>
@@ -961,7 +960,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>45725</v>
       </c>
@@ -996,7 +995,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>45725</v>
       </c>
@@ -1049,7 +1048,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>45725</v>
       </c>
@@ -1090,7 +1089,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>45725</v>
       </c>
@@ -1129,7 +1128,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>45725</v>
       </c>
@@ -1182,7 +1181,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>45725</v>
       </c>
@@ -1218,7 +1217,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>45725</v>
       </c>
@@ -1248,7 +1247,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>45725</v>
       </c>
@@ -1293,7 +1292,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>45718</v>
       </c>
@@ -1329,7 +1328,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>45718</v>
       </c>
@@ -1358,7 +1357,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>45718</v>
       </c>
@@ -1391,7 +1390,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>45718</v>
       </c>
@@ -1424,7 +1423,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>45718</v>
       </c>
@@ -1460,7 +1459,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>45718</v>
       </c>
@@ -1516,7 +1515,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>45718</v>
       </c>
@@ -1548,7 +1547,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>45718</v>
       </c>
@@ -1580,7 +1579,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>45718</v>
       </c>
@@ -1612,7 +1611,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>45718</v>
       </c>
@@ -1653,7 +1652,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>45718</v>
       </c>
@@ -1703,7 +1702,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>45718</v>
       </c>
@@ -1741,7 +1740,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>45718</v>
       </c>
@@ -1770,7 +1769,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>45718</v>
       </c>
@@ -1805,7 +1804,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>45718</v>
       </c>
@@ -1837,7 +1836,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>45718</v>
       </c>
@@ -1872,7 +1871,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>45718</v>
       </c>
@@ -1913,7 +1912,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>45718</v>
       </c>
@@ -1948,7 +1947,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>45718</v>
       </c>
@@ -2004,7 +2003,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>45718</v>
       </c>
@@ -2042,7 +2041,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
         <v>45718</v>
       </c>
@@ -2071,7 +2070,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
         <v>45718</v>
       </c>
@@ -2103,7 +2102,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
         <v>45718</v>
       </c>
@@ -2138,7 +2137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A38" s="2">
         <v>45718</v>
       </c>
@@ -2167,7 +2166,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A39" s="2">
         <v>45718</v>
       </c>
@@ -2202,7 +2201,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A40" s="2">
         <v>45718</v>
       </c>
@@ -2234,7 +2233,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A41" s="2">
         <v>45718</v>
       </c>
@@ -2290,7 +2289,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A42" s="2">
         <v>45711</v>
       </c>
@@ -2325,7 +2324,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A43" s="2">
         <v>45711</v>
       </c>
@@ -2351,7 +2350,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A44" s="2">
         <v>45711</v>
       </c>
@@ -2386,7 +2385,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A45" s="2">
         <v>45711</v>
       </c>
@@ -2418,7 +2417,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A46" s="2">
         <v>45711</v>
       </c>
@@ -2450,7 +2449,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A47" s="2">
         <v>45711</v>
       </c>
@@ -2485,7 +2484,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A48" s="2">
         <v>45711</v>
       </c>
@@ -2541,7 +2540,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A49" s="2">
         <v>45711</v>
       </c>
@@ -2576,7 +2575,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A50" s="2">
         <v>45711</v>
       </c>
@@ -2611,7 +2610,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A51" s="2">
         <v>45711</v>
       </c>
@@ -2643,7 +2642,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A52" s="2">
         <v>45710</v>
       </c>
@@ -2675,7 +2674,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A53" s="2">
         <v>45710</v>
       </c>
@@ -2710,7 +2709,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A54" s="2">
         <v>45710</v>
       </c>
@@ -2736,7 +2735,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A55" s="2">
         <v>45710</v>
       </c>
@@ -2765,7 +2764,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A56" s="2">
         <v>45710</v>
       </c>
@@ -2800,7 +2799,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A57" s="2">
         <v>45710</v>
       </c>
@@ -2827,7 +2826,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A58" s="2">
         <v>45710</v>
       </c>
@@ -2862,7 +2861,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A59" s="2">
         <v>45710</v>
       </c>
@@ -2894,7 +2893,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A60" s="2">
         <v>45759</v>
       </c>
@@ -2926,7 +2925,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A61" s="2">
         <v>45759</v>
       </c>
@@ -2955,7 +2954,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A62" s="2">
         <v>45759</v>
       </c>
@@ -2987,7 +2986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A63" s="2">
         <v>45759</v>
       </c>
@@ -3031,7 +3030,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A64" s="2">
         <v>45759</v>
       </c>
@@ -3063,7 +3062,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A65" s="2">
         <v>45759</v>
       </c>
@@ -3095,7 +3094,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A66" s="2">
         <v>45759</v>
       </c>
@@ -3130,7 +3129,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A67" s="2">
         <v>45759</v>
       </c>
@@ -3168,7 +3167,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A68" s="2">
         <v>45759</v>
       </c>
@@ -3203,7 +3202,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A69" s="2">
         <v>45759</v>
       </c>
@@ -3229,7 +3228,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A70" s="2">
         <v>45759</v>
       </c>
@@ -3258,7 +3257,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A71" s="2">
         <v>45759</v>
       </c>
@@ -3287,7 +3286,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A72" s="2">
         <v>45759</v>
       </c>
@@ -3322,7 +3321,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A73" s="2">
         <v>45759</v>
       </c>
@@ -3357,7 +3356,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A74" s="2">
         <v>45759</v>
       </c>
@@ -3383,7 +3382,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A75" s="2">
         <v>45759</v>
       </c>
@@ -3415,7 +3414,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A76" s="2">
         <v>45759</v>
       </c>
@@ -3450,7 +3449,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A77" s="2">
         <v>45759</v>
       </c>
@@ -3497,7 +3496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A78" s="2">
         <v>45759</v>
       </c>
@@ -3529,7 +3528,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A79" s="2">
         <v>45759</v>
       </c>
@@ -3555,7 +3554,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A80" s="2">
         <v>45759</v>
       </c>
@@ -3590,7 +3589,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A81" s="2">
         <v>45759</v>
       </c>
@@ -3622,7 +3621,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A82" s="2">
         <v>45759</v>
       </c>
@@ -3657,7 +3656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A83" s="2">
         <v>45759</v>
       </c>
@@ -3689,7 +3688,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A84" s="2">
         <v>45759</v>
       </c>
@@ -3724,7 +3723,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A85" s="2">
         <v>45759</v>
       </c>
@@ -3762,7 +3761,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A86" s="2">
         <v>45759</v>
       </c>
@@ -3791,7 +3790,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A87" s="2">
         <v>45759</v>
       </c>

--- a/data/objectives_db.xlsx
+++ b/data/objectives_db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal projects\LOL Analytics\izidash\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E6F193-A655-4602-A370-3063DA239A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6616B2C5-929C-48C3-93B0-EB89A5F75F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="143">
   <si>
     <t>date</t>
   </si>
@@ -382,6 +382,78 @@
   </si>
   <si>
     <t>25:37</t>
+  </si>
+  <si>
+    <t>8:15</t>
+  </si>
+  <si>
+    <t>13:40</t>
+  </si>
+  <si>
+    <t>17:20</t>
+  </si>
+  <si>
+    <t>18:10</t>
+  </si>
+  <si>
+    <t>21:45</t>
+  </si>
+  <si>
+    <t>24:50</t>
+  </si>
+  <si>
+    <t>KC</t>
+  </si>
+  <si>
+    <t>9:50</t>
+  </si>
+  <si>
+    <t>10:50</t>
+  </si>
+  <si>
+    <t>15:20</t>
+  </si>
+  <si>
+    <t>17:10</t>
+  </si>
+  <si>
+    <t>21:40</t>
+  </si>
+  <si>
+    <t>23:40</t>
+  </si>
+  <si>
+    <t>26:20</t>
+  </si>
+  <si>
+    <t>7:50</t>
+  </si>
+  <si>
+    <t>10:35</t>
+  </si>
+  <si>
+    <t>19:25</t>
+  </si>
+  <si>
+    <t>22:50</t>
+  </si>
+  <si>
+    <t>27:50</t>
+  </si>
+  <si>
+    <t>8:25</t>
+  </si>
+  <si>
+    <t>10:25</t>
+  </si>
+  <si>
+    <t>17:30</t>
+  </si>
+  <si>
+    <t>20:15</t>
+  </si>
+  <si>
+    <t>25:45</t>
   </si>
 </sst>
 </file>
@@ -719,8 +791,8 @@
   <dimension ref="A1:R267"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B94" sqref="B94"/>
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D134" sqref="D134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3504,7 +3576,7 @@
         <v>48</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>10</v>
@@ -3513,10 +3585,10 @@
         <v>15</v>
       </c>
       <c r="F78" t="s">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="G78" t="s">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="H78" s="5" t="s">
         <v>105</v>
@@ -3536,7 +3608,7 @@
         <v>48</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>6</v>
@@ -3562,7 +3634,7 @@
         <v>48</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>11</v>
@@ -3571,10 +3643,10 @@
         <v>32</v>
       </c>
       <c r="F80" t="s">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="G80" t="s">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="H80" s="5" t="s">
         <v>71</v>
@@ -3597,7 +3669,7 @@
         <v>48</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>12</v>
@@ -3629,7 +3701,7 @@
         <v>48</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>29</v>
@@ -3664,7 +3736,7 @@
         <v>48</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>13</v>
@@ -3696,7 +3768,7 @@
         <v>48</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>30</v>
@@ -3731,7 +3803,7 @@
         <v>48</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>31</v>
@@ -3769,7 +3841,7 @@
         <v>48</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>33</v>
@@ -3798,7 +3870,7 @@
         <v>48</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>34</v>
@@ -3807,10 +3879,10 @@
         <v>68</v>
       </c>
       <c r="F87" t="s">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="G87" t="s">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="H87" s="5" t="s">
         <v>112</v>
@@ -4152,150 +4224,1266 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="H97" s="5"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="H98" s="5"/>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="H99" s="5"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="H100" s="5"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="H101" s="5"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="H102" s="5"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="H103" s="5"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="H104" s="5"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="H105" s="5"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="H106" s="5"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="H107" s="5"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="H108" s="5"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="H109" s="5"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="H110" s="5"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="H111" s="5"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="H112" s="5"/>
-    </row>
-    <row r="113" spans="8:8" x14ac:dyDescent="0.4">
-      <c r="H113" s="5"/>
-    </row>
-    <row r="114" spans="8:8" x14ac:dyDescent="0.4">
-      <c r="H114" s="5"/>
-    </row>
-    <row r="115" spans="8:8" x14ac:dyDescent="0.4">
-      <c r="H115" s="5"/>
-    </row>
-    <row r="116" spans="8:8" x14ac:dyDescent="0.4">
-      <c r="H116" s="5"/>
-    </row>
-    <row r="117" spans="8:8" x14ac:dyDescent="0.4">
-      <c r="H117" s="5"/>
-    </row>
-    <row r="118" spans="8:8" x14ac:dyDescent="0.4">
-      <c r="H118" s="5"/>
-    </row>
-    <row r="119" spans="8:8" x14ac:dyDescent="0.4">
-      <c r="H119" s="5"/>
-    </row>
-    <row r="120" spans="8:8" x14ac:dyDescent="0.4">
-      <c r="H120" s="5"/>
-    </row>
-    <row r="121" spans="8:8" x14ac:dyDescent="0.4">
-      <c r="H121" s="5"/>
-    </row>
-    <row r="122" spans="8:8" x14ac:dyDescent="0.4">
-      <c r="H122" s="5"/>
-    </row>
-    <row r="123" spans="8:8" x14ac:dyDescent="0.4">
-      <c r="H123" s="5"/>
-    </row>
-    <row r="124" spans="8:8" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A97" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B97" t="s">
+        <v>76</v>
+      </c>
+      <c r="C97" t="s">
+        <v>77</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E97" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G97" t="s">
+        <v>77</v>
+      </c>
+      <c r="H97" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J97" t="s">
+        <v>7</v>
+      </c>
+      <c r="K97" t="s">
+        <v>7</v>
+      </c>
+      <c r="L97" t="s">
+        <v>7</v>
+      </c>
+      <c r="M97" t="s">
+        <v>7</v>
+      </c>
+      <c r="O97" t="s">
+        <v>7</v>
+      </c>
+      <c r="P97" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>7</v>
+      </c>
+      <c r="R97" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A98" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B98" t="s">
+        <v>76</v>
+      </c>
+      <c r="C98" t="s">
+        <v>77</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F98" t="s">
+        <v>28</v>
+      </c>
+      <c r="G98" t="s">
+        <v>76</v>
+      </c>
+      <c r="H98" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="J98" t="s">
+        <v>7</v>
+      </c>
+      <c r="N98" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A99" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B99" t="s">
+        <v>76</v>
+      </c>
+      <c r="C99" t="s">
+        <v>77</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E99" t="s">
+        <v>50</v>
+      </c>
+      <c r="F99" t="s">
+        <v>77</v>
+      </c>
+      <c r="G99" t="s">
+        <v>77</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="O99" t="s">
+        <v>7</v>
+      </c>
+      <c r="P99" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A100" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B100" t="s">
+        <v>76</v>
+      </c>
+      <c r="C100" t="s">
+        <v>77</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F100" t="s">
+        <v>77</v>
+      </c>
+      <c r="G100" t="s">
+        <v>77</v>
+      </c>
+      <c r="H100" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="O100" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>7</v>
+      </c>
+      <c r="R100" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A101" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B101" t="s">
+        <v>76</v>
+      </c>
+      <c r="C101" t="s">
+        <v>77</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E101" t="s">
+        <v>72</v>
+      </c>
+      <c r="F101" t="s">
+        <v>77</v>
+      </c>
+      <c r="G101" t="s">
+        <v>77</v>
+      </c>
+      <c r="H101" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="O101" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A102" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B102" t="s">
+        <v>76</v>
+      </c>
+      <c r="C102" t="s">
+        <v>77</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F102" t="s">
+        <v>76</v>
+      </c>
+      <c r="G102" t="s">
+        <v>76</v>
+      </c>
+      <c r="H102" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="J102" t="s">
+        <v>7</v>
+      </c>
+      <c r="L102" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A103" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B103" t="s">
+        <v>76</v>
+      </c>
+      <c r="C103" t="s">
+        <v>77</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E103" t="s">
+        <v>72</v>
+      </c>
+      <c r="F103" t="s">
+        <v>77</v>
+      </c>
+      <c r="G103" t="s">
+        <v>77</v>
+      </c>
+      <c r="H103" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O103" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>7</v>
+      </c>
+      <c r="R103" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A104" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B104" t="s">
+        <v>76</v>
+      </c>
+      <c r="C104" t="s">
+        <v>77</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F104" t="s">
+        <v>77</v>
+      </c>
+      <c r="G104" t="s">
+        <v>77</v>
+      </c>
+      <c r="H104" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="O104" t="s">
+        <v>7</v>
+      </c>
+      <c r="P104" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A105" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B105" t="s">
+        <v>76</v>
+      </c>
+      <c r="C105" t="s">
+        <v>77</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F105" t="s">
+        <v>28</v>
+      </c>
+      <c r="G105" t="s">
+        <v>77</v>
+      </c>
+      <c r="H105" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I105" t="s">
+        <v>7</v>
+      </c>
+      <c r="J105" t="s">
+        <v>7</v>
+      </c>
+      <c r="K105" t="s">
+        <v>7</v>
+      </c>
+      <c r="L105" t="s">
+        <v>7</v>
+      </c>
+      <c r="M105" t="s">
+        <v>7</v>
+      </c>
+      <c r="N105" t="s">
+        <v>7</v>
+      </c>
+      <c r="O105" t="s">
+        <v>7</v>
+      </c>
+      <c r="P105" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>7</v>
+      </c>
+      <c r="R105" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A106" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B106" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" t="s">
+        <v>125</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E106" t="s">
+        <v>32</v>
+      </c>
+      <c r="F106" t="s">
+        <v>125</v>
+      </c>
+      <c r="G106" t="s">
+        <v>125</v>
+      </c>
+      <c r="H106" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="O106" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>7</v>
+      </c>
+      <c r="R106" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A107" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B107" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" t="s">
+        <v>125</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F107" t="s">
+        <v>125</v>
+      </c>
+      <c r="G107" t="s">
+        <v>125</v>
+      </c>
+      <c r="H107" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="O107" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A108" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B108" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" t="s">
+        <v>125</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108" t="s">
+        <v>68</v>
+      </c>
+      <c r="F108" t="s">
+        <v>125</v>
+      </c>
+      <c r="G108" t="s">
+        <v>125</v>
+      </c>
+      <c r="H108" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="O108" t="s">
+        <v>7</v>
+      </c>
+      <c r="P108" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>7</v>
+      </c>
+      <c r="R108" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A109" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B109" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" t="s">
+        <v>125</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F109" t="s">
+        <v>9</v>
+      </c>
+      <c r="G109" t="s">
+        <v>9</v>
+      </c>
+      <c r="H109" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="J109" t="s">
+        <v>7</v>
+      </c>
+      <c r="M109" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A110" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B110" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" t="s">
+        <v>125</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F110" t="s">
+        <v>125</v>
+      </c>
+      <c r="G110" t="s">
+        <v>125</v>
+      </c>
+      <c r="H110" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="O110" t="s">
+        <v>7</v>
+      </c>
+      <c r="P110" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>7</v>
+      </c>
+      <c r="R110" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A111" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B111" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" t="s">
+        <v>125</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E111" t="s">
+        <v>14</v>
+      </c>
+      <c r="F111" t="s">
+        <v>9</v>
+      </c>
+      <c r="G111" t="s">
+        <v>9</v>
+      </c>
+      <c r="H111" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J111" t="s">
+        <v>7</v>
+      </c>
+      <c r="L111" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A112" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B112" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" t="s">
+        <v>125</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F112" t="s">
+        <v>9</v>
+      </c>
+      <c r="G112" t="s">
+        <v>9</v>
+      </c>
+      <c r="H112" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="I112" t="s">
+        <v>7</v>
+      </c>
+      <c r="J112" t="s">
+        <v>7</v>
+      </c>
+      <c r="K112" t="s">
+        <v>7</v>
+      </c>
+      <c r="L112" t="s">
+        <v>7</v>
+      </c>
+      <c r="M112" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A113" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B113" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113" t="s">
+        <v>125</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E113" t="s">
+        <v>14</v>
+      </c>
+      <c r="F113" t="s">
+        <v>9</v>
+      </c>
+      <c r="G113" t="s">
+        <v>9</v>
+      </c>
+      <c r="H113" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="L113" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A114" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B114" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" t="s">
+        <v>125</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F114" t="s">
+        <v>9</v>
+      </c>
+      <c r="G114" t="s">
+        <v>9</v>
+      </c>
+      <c r="H114" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="J114" t="s">
+        <v>7</v>
+      </c>
+      <c r="K114" t="s">
+        <v>7</v>
+      </c>
+      <c r="L114" t="s">
+        <v>7</v>
+      </c>
+      <c r="M114" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A115" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B115" t="s">
+        <v>48</v>
+      </c>
+      <c r="C115" t="s">
+        <v>49</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E115" t="s">
+        <v>15</v>
+      </c>
+      <c r="F115" t="s">
+        <v>49</v>
+      </c>
+      <c r="G115" t="s">
+        <v>49</v>
+      </c>
+      <c r="H115" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="P115" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A116" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B116" t="s">
+        <v>48</v>
+      </c>
+      <c r="C116" t="s">
+        <v>49</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F116" t="s">
+        <v>48</v>
+      </c>
+      <c r="G116" t="s">
+        <v>48</v>
+      </c>
+      <c r="H116" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J116" t="s">
+        <v>7</v>
+      </c>
+      <c r="K116" t="s">
+        <v>7</v>
+      </c>
+      <c r="L116" t="s">
+        <v>7</v>
+      </c>
+      <c r="M116" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A117" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B117" t="s">
+        <v>48</v>
+      </c>
+      <c r="C117" t="s">
+        <v>49</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E117" t="s">
+        <v>32</v>
+      </c>
+      <c r="F117" t="s">
+        <v>48</v>
+      </c>
+      <c r="G117" t="s">
+        <v>48</v>
+      </c>
+      <c r="H117" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J117" t="s">
+        <v>7</v>
+      </c>
+      <c r="K117" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A118" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B118" t="s">
+        <v>48</v>
+      </c>
+      <c r="C118" t="s">
+        <v>49</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F118" t="s">
+        <v>28</v>
+      </c>
+      <c r="G118" t="s">
+        <v>49</v>
+      </c>
+      <c r="H118" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="I118" t="s">
+        <v>7</v>
+      </c>
+      <c r="J118" t="s">
+        <v>7</v>
+      </c>
+      <c r="L118" t="s">
+        <v>7</v>
+      </c>
+      <c r="M118" t="s">
+        <v>7</v>
+      </c>
+      <c r="O118" t="s">
+        <v>7</v>
+      </c>
+      <c r="P118" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>7</v>
+      </c>
+      <c r="R118" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A119" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B119" t="s">
+        <v>48</v>
+      </c>
+      <c r="C119" t="s">
+        <v>49</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F119" t="s">
+        <v>49</v>
+      </c>
+      <c r="G119" t="s">
+        <v>49</v>
+      </c>
+      <c r="H119" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O119" t="s">
+        <v>7</v>
+      </c>
+      <c r="P119" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A120" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B120" t="s">
+        <v>48</v>
+      </c>
+      <c r="C120" t="s">
+        <v>49</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E120" t="s">
+        <v>68</v>
+      </c>
+      <c r="F120" t="s">
+        <v>48</v>
+      </c>
+      <c r="G120" t="s">
+        <v>48</v>
+      </c>
+      <c r="H120" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="I120" t="s">
+        <v>7</v>
+      </c>
+      <c r="J120" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A121" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B121" t="s">
+        <v>48</v>
+      </c>
+      <c r="C121" t="s">
+        <v>49</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F121" t="s">
+        <v>48</v>
+      </c>
+      <c r="G121" t="s">
+        <v>48</v>
+      </c>
+      <c r="H121" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I121" t="s">
+        <v>7</v>
+      </c>
+      <c r="J121" t="s">
+        <v>7</v>
+      </c>
+      <c r="K121" t="s">
+        <v>7</v>
+      </c>
+      <c r="L121" t="s">
+        <v>7</v>
+      </c>
+      <c r="M121" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A122" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B122" t="s">
+        <v>48</v>
+      </c>
+      <c r="C122" t="s">
+        <v>49</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E122" t="s">
+        <v>68</v>
+      </c>
+      <c r="F122" t="s">
+        <v>48</v>
+      </c>
+      <c r="G122" t="s">
+        <v>48</v>
+      </c>
+      <c r="H122" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I122" t="s">
+        <v>7</v>
+      </c>
+      <c r="J122" t="s">
+        <v>7</v>
+      </c>
+      <c r="K122" t="s">
+        <v>7</v>
+      </c>
+      <c r="L122" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A123" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B123" t="s">
+        <v>48</v>
+      </c>
+      <c r="C123" t="s">
+        <v>49</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F123" t="s">
+        <v>48</v>
+      </c>
+      <c r="G123" t="s">
+        <v>48</v>
+      </c>
+      <c r="H123" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="I123" t="s">
+        <v>7</v>
+      </c>
+      <c r="J123" t="s">
+        <v>7</v>
+      </c>
+      <c r="K123" t="s">
+        <v>7</v>
+      </c>
+      <c r="L123" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A124" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B124" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" t="s">
+        <v>113</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="H124" s="5"/>
     </row>
-    <row r="125" spans="8:8" x14ac:dyDescent="0.4">
-      <c r="H125" s="5"/>
-    </row>
-    <row r="126" spans="8:8" x14ac:dyDescent="0.4">
-      <c r="H126" s="5"/>
-    </row>
-    <row r="127" spans="8:8" x14ac:dyDescent="0.4">
-      <c r="H127" s="5"/>
-    </row>
-    <row r="128" spans="8:8" x14ac:dyDescent="0.4">
-      <c r="H128" s="5"/>
-    </row>
-    <row r="129" spans="8:8" x14ac:dyDescent="0.4">
-      <c r="H129" s="5"/>
-    </row>
-    <row r="130" spans="8:8" x14ac:dyDescent="0.4">
-      <c r="H130" s="5"/>
-    </row>
-    <row r="131" spans="8:8" x14ac:dyDescent="0.4">
-      <c r="H131" s="5"/>
-    </row>
-    <row r="132" spans="8:8" x14ac:dyDescent="0.4">
-      <c r="H132" s="5"/>
-    </row>
-    <row r="133" spans="8:8" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A125" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B125" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" t="s">
+        <v>113</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F125" t="s">
+        <v>8</v>
+      </c>
+      <c r="G125" t="s">
+        <v>8</v>
+      </c>
+      <c r="H125" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J125" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A126" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B126" t="s">
+        <v>8</v>
+      </c>
+      <c r="C126" t="s">
+        <v>113</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E126" t="s">
+        <v>14</v>
+      </c>
+      <c r="F126" t="s">
+        <v>113</v>
+      </c>
+      <c r="G126" t="s">
+        <v>113</v>
+      </c>
+      <c r="H126" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="O126" t="s">
+        <v>7</v>
+      </c>
+      <c r="R126" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A127" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B127" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" t="s">
+        <v>113</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F127" t="s">
+        <v>8</v>
+      </c>
+      <c r="G127" t="s">
+        <v>8</v>
+      </c>
+      <c r="H127" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="I127" t="s">
+        <v>7</v>
+      </c>
+      <c r="J127" t="s">
+        <v>7</v>
+      </c>
+      <c r="L127" t="s">
+        <v>7</v>
+      </c>
+      <c r="M127" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A128" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B128" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128" t="s">
+        <v>113</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E128" t="s">
+        <v>72</v>
+      </c>
+      <c r="F128" t="s">
+        <v>28</v>
+      </c>
+      <c r="G128" t="s">
+        <v>113</v>
+      </c>
+      <c r="H128" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J128" t="s">
+        <v>7</v>
+      </c>
+      <c r="K128" t="s">
+        <v>7</v>
+      </c>
+      <c r="L128" t="s">
+        <v>7</v>
+      </c>
+      <c r="M128" t="s">
+        <v>7</v>
+      </c>
+      <c r="N128" t="s">
+        <v>7</v>
+      </c>
+      <c r="O128" t="s">
+        <v>7</v>
+      </c>
+      <c r="P128" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>7</v>
+      </c>
+      <c r="R128" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A129" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B129" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129" t="s">
+        <v>113</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F129" t="s">
+        <v>8</v>
+      </c>
+      <c r="G129" t="s">
+        <v>8</v>
+      </c>
+      <c r="H129" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="J129" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A130" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B130" t="s">
+        <v>8</v>
+      </c>
+      <c r="C130" t="s">
+        <v>113</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E130" t="s">
+        <v>50</v>
+      </c>
+      <c r="F130" t="s">
+        <v>8</v>
+      </c>
+      <c r="G130" t="s">
+        <v>8</v>
+      </c>
+      <c r="H130" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J130" t="s">
+        <v>7</v>
+      </c>
+      <c r="K130" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A131" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B131" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131" t="s">
+        <v>113</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F131" t="s">
+        <v>8</v>
+      </c>
+      <c r="G131" t="s">
+        <v>8</v>
+      </c>
+      <c r="H131" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="I131" t="s">
+        <v>7</v>
+      </c>
+      <c r="L131" t="s">
+        <v>7</v>
+      </c>
+      <c r="M131" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A132" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B132" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" t="s">
+        <v>113</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F132" t="s">
+        <v>8</v>
+      </c>
+      <c r="G132" t="s">
+        <v>8</v>
+      </c>
+      <c r="H132" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="I132" t="s">
+        <v>7</v>
+      </c>
+      <c r="J132" t="s">
+        <v>7</v>
+      </c>
+      <c r="L132" t="s">
+        <v>7</v>
+      </c>
+      <c r="M132" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A133" s="2"/>
       <c r="H133" s="5"/>
     </row>
-    <row r="134" spans="8:8" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.4">
       <c r="H134" s="5"/>
     </row>
-    <row r="135" spans="8:8" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.4">
       <c r="H135" s="5"/>
     </row>
-    <row r="136" spans="8:8" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.4">
       <c r="H136" s="5"/>
     </row>
-    <row r="137" spans="8:8" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.4">
       <c r="H137" s="5"/>
     </row>
-    <row r="138" spans="8:8" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.4">
       <c r="H138" s="5"/>
     </row>
-    <row r="139" spans="8:8" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.4">
       <c r="H139" s="5"/>
     </row>
-    <row r="140" spans="8:8" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.4">
       <c r="H140" s="5"/>
     </row>
-    <row r="141" spans="8:8" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.4">
       <c r="H141" s="5"/>
     </row>
-    <row r="142" spans="8:8" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.4">
       <c r="H142" s="5"/>
     </row>
-    <row r="143" spans="8:8" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.4">
       <c r="H143" s="5"/>
     </row>
-    <row r="144" spans="8:8" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.4">
       <c r="H144" s="5"/>
     </row>
     <row r="145" spans="8:8" x14ac:dyDescent="0.4">
